--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3945.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3945.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.214609695873239</v>
+        <v>0.3770616352558136</v>
       </c>
       <c r="B1">
-        <v>2.059179572146855</v>
+        <v>1.102589726448059</v>
       </c>
       <c r="C1">
-        <v>6.011065320005099</v>
+        <v>4.730323314666748</v>
       </c>
       <c r="D1">
-        <v>4.103191698730861</v>
+        <v>1.799968600273132</v>
       </c>
       <c r="E1">
-        <v>1.451036439431439</v>
+        <v>1.002940535545349</v>
       </c>
     </row>
   </sheetData>
